--- a/DadosLuisaFinalV6.xlsx
+++ b/DadosLuisaFinalV6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA197"/>
+  <dimension ref="A1:DC197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,6 +959,16 @@
           <t>GOVERNANÇA -</t>
         </is>
       </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL POSITIVO</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL NEGATIVO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1261,22 +1271,28 @@
         <v>27</v>
       </c>
       <c r="CV2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="CW2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="CX2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="CY2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CZ2" t="n">
         <v>3</v>
       </c>
       <c r="DA2" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>57</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -1580,13 +1596,13 @@
         <v>14</v>
       </c>
       <c r="CV3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="CW3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="CX3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CY3" t="n">
         <v>11</v>
@@ -1596,6 +1612,12 @@
       </c>
       <c r="DA3" t="n">
         <v>3</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>31</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1899,22 +1921,28 @@
         <v>375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1383</v>
+        <v>1604</v>
       </c>
       <c r="CW4" t="n">
-        <v>571</v>
+        <v>654</v>
       </c>
       <c r="CX4" t="n">
-        <v>812</v>
+        <v>950</v>
       </c>
       <c r="CY4" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="CZ4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="DA4" t="n">
         <v>591</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>1494</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>2323</v>
       </c>
     </row>
     <row r="5">
@@ -2218,13 +2246,13 @@
         <v>81</v>
       </c>
       <c r="CV5" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="CW5" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="CX5" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="CY5" t="n">
         <v>41</v>
@@ -2234,6 +2262,12 @@
       </c>
       <c r="DA5" t="n">
         <v>31</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>100</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -2537,13 +2571,13 @@
         <v>9</v>
       </c>
       <c r="CV6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="CW6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="CX6" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="CY6" t="n">
         <v>21</v>
@@ -2553,6 +2587,12 @@
       </c>
       <c r="DA6" t="n">
         <v>7</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -2858,13 +2898,13 @@
         <v>159</v>
       </c>
       <c r="CV7" t="n">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="CW7" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="CX7" t="n">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="CY7" t="n">
         <v>340</v>
@@ -2874,6 +2914,12 @@
       </c>
       <c r="DA7" t="n">
         <v>213</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>149</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>442</v>
       </c>
     </row>
     <row r="8">
@@ -3177,13 +3223,13 @@
         <v>66</v>
       </c>
       <c r="CV8" t="n">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="CW8" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="CX8" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="CY8" t="n">
         <v>77</v>
@@ -3193,6 +3239,12 @@
       </c>
       <c r="DA8" t="n">
         <v>55</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>120</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="9">
@@ -3496,13 +3548,13 @@
         <v>159</v>
       </c>
       <c r="CV9" t="n">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="CW9" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="CX9" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="CY9" t="n">
         <v>53</v>
@@ -3512,6 +3564,12 @@
       </c>
       <c r="DA9" t="n">
         <v>33</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>99</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -3815,13 +3873,13 @@
         <v>13</v>
       </c>
       <c r="CV10" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="CW10" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CX10" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="CY10" t="n">
         <v>45</v>
@@ -3831,6 +3889,12 @@
       </c>
       <c r="DA10" t="n">
         <v>28</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>49</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -4134,13 +4198,13 @@
         <v>54</v>
       </c>
       <c r="CV11" t="n">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="CW11" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="CX11" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="CY11" t="n">
         <v>130</v>
@@ -4150,6 +4214,12 @@
       </c>
       <c r="DA11" t="n">
         <v>91</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>70</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="12">
@@ -4453,13 +4523,13 @@
         <v>31</v>
       </c>
       <c r="CV12" t="n">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="CW12" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="CX12" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="CY12" t="n">
         <v>120</v>
@@ -4469,6 +4539,12 @@
       </c>
       <c r="DA12" t="n">
         <v>78</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>69</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -4772,13 +4848,13 @@
         <v>43</v>
       </c>
       <c r="CV13" t="n">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="CW13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="CX13" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="CY13" t="n">
         <v>52</v>
@@ -4788,6 +4864,12 @@
       </c>
       <c r="DA13" t="n">
         <v>24</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>94</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="14">
@@ -5091,22 +5173,28 @@
         <v>82</v>
       </c>
       <c r="CV14" t="n">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="CW14" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="CX14" t="n">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="CY14" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CZ14" t="n">
         <v>56</v>
       </c>
       <c r="DA14" t="n">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>130</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>429</v>
       </c>
     </row>
     <row r="15">
@@ -5410,13 +5498,13 @@
         <v>33</v>
       </c>
       <c r="CV15" t="n">
+        <v>34</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX15" t="n">
         <v>31</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>3</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>28</v>
       </c>
       <c r="CY15" t="n">
         <v>20</v>
@@ -5426,6 +5514,12 @@
       </c>
       <c r="DA15" t="n">
         <v>18</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>9</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -5729,13 +5823,13 @@
         <v>219</v>
       </c>
       <c r="CV16" t="n">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="CW16" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="CX16" t="n">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="CY16" t="n">
         <v>221</v>
@@ -5745,6 +5839,12 @@
       </c>
       <c r="DA16" t="n">
         <v>160</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>247</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>712</v>
       </c>
     </row>
     <row r="17">
@@ -6048,13 +6148,13 @@
         <v>85</v>
       </c>
       <c r="CV17" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="CW17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CX17" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="CY17" t="n">
         <v>63</v>
@@ -6064,6 +6164,12 @@
       </c>
       <c r="DA17" t="n">
         <v>46</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>81</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -6367,13 +6473,13 @@
         <v>80</v>
       </c>
       <c r="CV18" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CW18" t="n">
         <v>33</v>
       </c>
       <c r="CX18" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CY18" t="n">
         <v>31</v>
@@ -6383,6 +6489,12 @@
       </c>
       <c r="DA18" t="n">
         <v>27</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>44</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="19">
@@ -6686,22 +6798,28 @@
         <v>92</v>
       </c>
       <c r="CV19" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="CW19" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="CX19" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="CY19" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CZ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="DA19" t="n">
         <v>45</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>342</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="20">
@@ -7005,13 +7123,13 @@
         <v>60</v>
       </c>
       <c r="CV20" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="CW20" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CX20" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="CY20" t="n">
         <v>40</v>
@@ -7021,6 +7139,12 @@
       </c>
       <c r="DA20" t="n">
         <v>26</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>73</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="21">
@@ -7324,13 +7448,13 @@
         <v>120</v>
       </c>
       <c r="CV21" t="n">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="CW21" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="CX21" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="CY21" t="n">
         <v>108</v>
@@ -7340,6 +7464,12 @@
       </c>
       <c r="DA21" t="n">
         <v>85</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>63</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -7643,22 +7773,28 @@
         <v>74</v>
       </c>
       <c r="CV22" t="n">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="CW22" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="CX22" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="CY22" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CZ22" t="n">
         <v>45</v>
       </c>
       <c r="DA22" t="n">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>184</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="23">
@@ -7962,13 +8098,13 @@
         <v>54</v>
       </c>
       <c r="CV23" t="n">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="CW23" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="CX23" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="CY23" t="n">
         <v>97</v>
@@ -7978,6 +8114,12 @@
       </c>
       <c r="DA23" t="n">
         <v>58</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>149</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="24">
@@ -8281,13 +8423,13 @@
         <v>308</v>
       </c>
       <c r="CV24" t="n">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="CW24" t="n">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="CX24" t="n">
-        <v>634</v>
+        <v>686</v>
       </c>
       <c r="CY24" t="n">
         <v>614</v>
@@ -8297,6 +8439,12 @@
       </c>
       <c r="DA24" t="n">
         <v>436</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>372</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>916</v>
       </c>
     </row>
     <row r="25">
@@ -8600,13 +8748,13 @@
         <v>92</v>
       </c>
       <c r="CV25" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="CW25" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CX25" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="CY25" t="n">
         <v>75</v>
@@ -8616,6 +8764,12 @@
       </c>
       <c r="DA25" t="n">
         <v>51</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>78</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="26">
@@ -8919,22 +9073,28 @@
         <v>51</v>
       </c>
       <c r="CV26" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="CW26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="CX26" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CY26" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="CZ26" t="n">
         <v>29</v>
       </c>
       <c r="DA26" t="n">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>79</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="27">
@@ -9238,13 +9398,13 @@
         <v>12</v>
       </c>
       <c r="CV27" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CW27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CX27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CY27" t="n">
         <v>7</v>
@@ -9254,6 +9414,12 @@
       </c>
       <c r="DA27" t="n">
         <v>4</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>11</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -9557,13 +9723,13 @@
         <v>95</v>
       </c>
       <c r="CV28" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="CW28" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="CX28" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="CY28" t="n">
         <v>80</v>
@@ -9573,6 +9739,12 @@
       </c>
       <c r="DA28" t="n">
         <v>56</v>
+      </c>
+      <c r="DB28" t="n">
+        <v>111</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="29">
@@ -9876,22 +10048,28 @@
         <v>102</v>
       </c>
       <c r="CV29" t="n">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="CW29" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="CX29" t="n">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="CY29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CZ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DA29" t="n">
         <v>33</v>
+      </c>
+      <c r="DB29" t="n">
+        <v>84</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="30">
@@ -10195,13 +10373,13 @@
         <v>124</v>
       </c>
       <c r="CV30" t="n">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="CW30" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="CX30" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="CY30" t="n">
         <v>80</v>
@@ -10211,6 +10389,12 @@
       </c>
       <c r="DA30" t="n">
         <v>55</v>
+      </c>
+      <c r="DB30" t="n">
+        <v>207</v>
+      </c>
+      <c r="DC30" t="n">
+        <v>422</v>
       </c>
     </row>
     <row r="31">
@@ -10514,13 +10698,13 @@
         <v>367</v>
       </c>
       <c r="CV31" t="n">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="CW31" t="n">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="CX31" t="n">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="CY31" t="n">
         <v>225</v>
@@ -10530,6 +10714,12 @@
       </c>
       <c r="DA31" t="n">
         <v>155</v>
+      </c>
+      <c r="DB31" t="n">
+        <v>331</v>
+      </c>
+      <c r="DC31" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="32">
@@ -10833,13 +11023,13 @@
         <v>77</v>
       </c>
       <c r="CV32" t="n">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="CW32" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="CX32" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="CY32" t="n">
         <v>65</v>
@@ -10849,6 +11039,12 @@
       </c>
       <c r="DA32" t="n">
         <v>49</v>
+      </c>
+      <c r="DB32" t="n">
+        <v>77</v>
+      </c>
+      <c r="DC32" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -11152,22 +11348,28 @@
         <v>146</v>
       </c>
       <c r="CV33" t="n">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="CW33" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="CX33" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="CY33" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CZ33" t="n">
         <v>35</v>
       </c>
       <c r="DA33" t="n">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="DB33" t="n">
+        <v>179</v>
+      </c>
+      <c r="DC33" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="34">
@@ -11471,13 +11673,13 @@
         <v>175</v>
       </c>
       <c r="CV34" t="n">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="CW34" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="CX34" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="CY34" t="n">
         <v>126</v>
@@ -11487,6 +11689,12 @@
       </c>
       <c r="DA34" t="n">
         <v>88</v>
+      </c>
+      <c r="DB34" t="n">
+        <v>182</v>
+      </c>
+      <c r="DC34" t="n">
+        <v>458</v>
       </c>
     </row>
     <row r="35">
@@ -11790,13 +11998,13 @@
         <v>99</v>
       </c>
       <c r="CV35" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="CW35" t="n">
         <v>25</v>
       </c>
       <c r="CX35" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="CY35" t="n">
         <v>77</v>
@@ -11806,6 +12014,12 @@
       </c>
       <c r="DA35" t="n">
         <v>66</v>
+      </c>
+      <c r="DB35" t="n">
+        <v>72</v>
+      </c>
+      <c r="DC35" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="36">
@@ -12109,13 +12323,13 @@
         <v>79</v>
       </c>
       <c r="CV36" t="n">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="CW36" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="CX36" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="CY36" t="n">
         <v>137</v>
@@ -12125,6 +12339,12 @@
       </c>
       <c r="DA36" t="n">
         <v>90</v>
+      </c>
+      <c r="DB36" t="n">
+        <v>140</v>
+      </c>
+      <c r="DC36" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="37">
@@ -12428,13 +12648,13 @@
         <v>126</v>
       </c>
       <c r="CV37" t="n">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="CW37" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="CX37" t="n">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="CY37" t="n">
         <v>116</v>
@@ -12444,6 +12664,12 @@
       </c>
       <c r="DA37" t="n">
         <v>69</v>
+      </c>
+      <c r="DB37" t="n">
+        <v>124</v>
+      </c>
+      <c r="DC37" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="38">
@@ -12747,22 +12973,28 @@
         <v>262</v>
       </c>
       <c r="CV38" t="n">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="CW38" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="CX38" t="n">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="CY38" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="CZ38" t="n">
         <v>84</v>
       </c>
       <c r="DA38" t="n">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="DB38" t="n">
+        <v>320</v>
+      </c>
+      <c r="DC38" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="39">
@@ -13066,13 +13298,13 @@
         <v>60</v>
       </c>
       <c r="CV39" t="n">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="CW39" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="CX39" t="n">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="CY39" t="n">
         <v>97</v>
@@ -13082,6 +13314,12 @@
       </c>
       <c r="DA39" t="n">
         <v>59</v>
+      </c>
+      <c r="DB39" t="n">
+        <v>155</v>
+      </c>
+      <c r="DC39" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="40">
@@ -13385,13 +13623,13 @@
         <v>73</v>
       </c>
       <c r="CV40" t="n">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="CW40" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="CX40" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="CY40" t="n">
         <v>338</v>
@@ -13401,6 +13639,12 @@
       </c>
       <c r="DA40" t="n">
         <v>240</v>
+      </c>
+      <c r="DB40" t="n">
+        <v>122</v>
+      </c>
+      <c r="DC40" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="41">
@@ -13704,13 +13948,13 @@
         <v>55</v>
       </c>
       <c r="CV41" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="CW41" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="CX41" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="CY41" t="n">
         <v>56</v>
@@ -13720,6 +13964,12 @@
       </c>
       <c r="DA41" t="n">
         <v>39</v>
+      </c>
+      <c r="DB41" t="n">
+        <v>58</v>
+      </c>
+      <c r="DC41" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -14023,22 +14273,28 @@
         <v>182</v>
       </c>
       <c r="CV42" t="n">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="CW42" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="CX42" t="n">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="CY42" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CZ42" t="n">
         <v>41</v>
       </c>
       <c r="DA42" t="n">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="DB42" t="n">
+        <v>209</v>
+      </c>
+      <c r="DC42" t="n">
+        <v>516</v>
       </c>
     </row>
     <row r="43">
@@ -14340,13 +14596,13 @@
         <v>61</v>
       </c>
       <c r="CV43" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="CW43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CX43" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="CY43" t="n">
         <v>40</v>
@@ -14356,6 +14612,12 @@
       </c>
       <c r="DA43" t="n">
         <v>25</v>
+      </c>
+      <c r="DB43" t="n">
+        <v>57</v>
+      </c>
+      <c r="DC43" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="44">
@@ -14659,13 +14921,13 @@
         <v>147</v>
       </c>
       <c r="CV44" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="CW44" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="CX44" t="n">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="CY44" t="n">
         <v>177</v>
@@ -14675,6 +14937,12 @@
       </c>
       <c r="DA44" t="n">
         <v>122</v>
+      </c>
+      <c r="DB44" t="n">
+        <v>231</v>
+      </c>
+      <c r="DC44" t="n">
+        <v>567</v>
       </c>
     </row>
     <row r="45">
@@ -14978,13 +15246,13 @@
         <v>38</v>
       </c>
       <c r="CV45" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="CW45" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="CX45" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="CY45" t="n">
         <v>26</v>
@@ -14994,6 +15262,12 @@
       </c>
       <c r="DA45" t="n">
         <v>16</v>
+      </c>
+      <c r="DB45" t="n">
+        <v>67</v>
+      </c>
+      <c r="DC45" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="46">
@@ -15297,22 +15571,28 @@
         <v>63</v>
       </c>
       <c r="CV46" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="CW46" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CX46" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="CY46" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CZ46" t="n">
         <v>11</v>
       </c>
       <c r="DA46" t="n">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="DB46" t="n">
+        <v>53</v>
+      </c>
+      <c r="DC46" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="47">
@@ -15616,13 +15896,13 @@
         <v>66</v>
       </c>
       <c r="CV47" t="n">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="CW47" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="CX47" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="CY47" t="n">
         <v>82</v>
@@ -15632,6 +15912,12 @@
       </c>
       <c r="DA47" t="n">
         <v>48</v>
+      </c>
+      <c r="DB47" t="n">
+        <v>165</v>
+      </c>
+      <c r="DC47" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="48">
@@ -15935,22 +16221,28 @@
         <v>198</v>
       </c>
       <c r="CV48" t="n">
-        <v>552</v>
+        <v>771</v>
       </c>
       <c r="CW48" t="n">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="CX48" t="n">
-        <v>299</v>
+        <v>427</v>
       </c>
       <c r="CY48" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="CZ48" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="DA48" t="n">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="DB48" t="n">
+        <v>630</v>
+      </c>
+      <c r="DC48" t="n">
+        <v>905</v>
       </c>
     </row>
     <row r="49">
@@ -16254,13 +16546,13 @@
         <v>135</v>
       </c>
       <c r="CV49" t="n">
-        <v>411</v>
+        <v>573</v>
       </c>
       <c r="CW49" t="n">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="CX49" t="n">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c r="CY49" t="n">
         <v>193</v>
@@ -16270,6 +16562,12 @@
       </c>
       <c r="DA49" t="n">
         <v>135</v>
+      </c>
+      <c r="DB49" t="n">
+        <v>392</v>
+      </c>
+      <c r="DC49" t="n">
+        <v>861</v>
       </c>
     </row>
     <row r="50">
@@ -16573,22 +16871,28 @@
         <v>142</v>
       </c>
       <c r="CV50" t="n">
-        <v>244</v>
+        <v>395</v>
       </c>
       <c r="CW50" t="n">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="CX50" t="n">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="CY50" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CZ50" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DA50" t="n">
         <v>74</v>
+      </c>
+      <c r="DB50" t="n">
+        <v>302</v>
+      </c>
+      <c r="DC50" t="n">
+        <v>479</v>
       </c>
     </row>
     <row r="51">
@@ -16892,13 +17196,13 @@
         <v>106</v>
       </c>
       <c r="CV51" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="CW51" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="CX51" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="CY51" t="n">
         <v>252</v>
@@ -16908,6 +17212,12 @@
       </c>
       <c r="DA51" t="n">
         <v>177</v>
+      </c>
+      <c r="DB51" t="n">
+        <v>147</v>
+      </c>
+      <c r="DC51" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="52">
@@ -17211,13 +17521,13 @@
         <v>67</v>
       </c>
       <c r="CV52" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="CW52" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CX52" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CY52" t="n">
         <v>29</v>
@@ -17227,6 +17537,12 @@
       </c>
       <c r="DA52" t="n">
         <v>22</v>
+      </c>
+      <c r="DB52" t="n">
+        <v>48</v>
+      </c>
+      <c r="DC52" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="53">
@@ -17530,13 +17846,13 @@
         <v>32</v>
       </c>
       <c r="CV53" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="CW53" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="CX53" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="CY53" t="n">
         <v>56</v>
@@ -17546,6 +17862,12 @@
       </c>
       <c r="DA53" t="n">
         <v>41</v>
+      </c>
+      <c r="DB53" t="n">
+        <v>65</v>
+      </c>
+      <c r="DC53" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -17849,13 +18171,13 @@
         <v>88</v>
       </c>
       <c r="CV54" t="n">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="CW54" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="CX54" t="n">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="CY54" t="n">
         <v>73</v>
@@ -17865,6 +18187,12 @@
       </c>
       <c r="DA54" t="n">
         <v>40</v>
+      </c>
+      <c r="DB54" t="n">
+        <v>148</v>
+      </c>
+      <c r="DC54" t="n">
+        <v>293</v>
       </c>
     </row>
     <row r="55">
@@ -18168,13 +18496,13 @@
         <v>59</v>
       </c>
       <c r="CV55" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="CW55" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="CX55" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="CY55" t="n">
         <v>76</v>
@@ -18184,6 +18512,12 @@
       </c>
       <c r="DA55" t="n">
         <v>53</v>
+      </c>
+      <c r="DB55" t="n">
+        <v>63</v>
+      </c>
+      <c r="DC55" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="56">
@@ -18487,13 +18821,13 @@
         <v>50</v>
       </c>
       <c r="CV56" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="CW56" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="CX56" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="CY56" t="n">
         <v>47</v>
@@ -18503,6 +18837,12 @@
       </c>
       <c r="DA56" t="n">
         <v>32</v>
+      </c>
+      <c r="DB56" t="n">
+        <v>84</v>
+      </c>
+      <c r="DC56" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="57">
@@ -18806,22 +19146,28 @@
         <v>46</v>
       </c>
       <c r="CV57" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="CW57" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="CX57" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="CY57" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CZ57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DA57" t="n">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="DB57" t="n">
+        <v>63</v>
+      </c>
+      <c r="DC57" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="58">
@@ -19125,13 +19471,13 @@
         <v>155</v>
       </c>
       <c r="CV58" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="CW58" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="CX58" t="n">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="CY58" t="n">
         <v>69</v>
@@ -19141,6 +19487,12 @@
       </c>
       <c r="DA58" t="n">
         <v>46</v>
+      </c>
+      <c r="DB58" t="n">
+        <v>246</v>
+      </c>
+      <c r="DC58" t="n">
+        <v>453</v>
       </c>
     </row>
     <row r="59">
@@ -19444,13 +19796,13 @@
         <v>331</v>
       </c>
       <c r="CV59" t="n">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="CW59" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="CX59" t="n">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="CY59" t="n">
         <v>684</v>
@@ -19460,6 +19812,12 @@
       </c>
       <c r="DA59" t="n">
         <v>447</v>
+      </c>
+      <c r="DB59" t="n">
+        <v>595</v>
+      </c>
+      <c r="DC59" t="n">
+        <v>1065</v>
       </c>
     </row>
     <row r="60">
@@ -19763,13 +20121,13 @@
         <v>141</v>
       </c>
       <c r="CV60" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="CW60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CX60" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="CY60" t="n">
         <v>131</v>
@@ -19779,6 +20137,12 @@
       </c>
       <c r="DA60" t="n">
         <v>102</v>
+      </c>
+      <c r="DB60" t="n">
+        <v>102</v>
+      </c>
+      <c r="DC60" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="61">
@@ -20082,13 +20446,13 @@
         <v>71</v>
       </c>
       <c r="CV61" t="n">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="CW61" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="CX61" t="n">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="CY61" t="n">
         <v>87</v>
@@ -20098,6 +20462,12 @@
       </c>
       <c r="DA61" t="n">
         <v>67</v>
+      </c>
+      <c r="DB61" t="n">
+        <v>67</v>
+      </c>
+      <c r="DC61" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="62">
@@ -20401,13 +20771,13 @@
         <v>652</v>
       </c>
       <c r="CV62" t="n">
-        <v>2468</v>
+        <v>2573</v>
       </c>
       <c r="CW62" t="n">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="CX62" t="n">
-        <v>1888</v>
+        <v>1968</v>
       </c>
       <c r="CY62" t="n">
         <v>1594</v>
@@ -20417,6 +20787,12 @@
       </c>
       <c r="DA62" t="n">
         <v>1210</v>
+      </c>
+      <c r="DB62" t="n">
+        <v>897</v>
+      </c>
+      <c r="DC62" t="n">
+        <v>2743</v>
       </c>
     </row>
     <row r="63">
@@ -20720,10 +21096,10 @@
         <v>103</v>
       </c>
       <c r="CV63" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="CW63" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="CX63" t="n">
         <v>85</v>
@@ -20736,6 +21112,12 @@
       </c>
       <c r="DA63" t="n">
         <v>41</v>
+      </c>
+      <c r="DB63" t="n">
+        <v>109</v>
+      </c>
+      <c r="DC63" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="64">
@@ -21039,13 +21421,13 @@
         <v>116</v>
       </c>
       <c r="CV64" t="n">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="CW64" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="CX64" t="n">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="CY64" t="n">
         <v>143</v>
@@ -21055,6 +21437,12 @@
       </c>
       <c r="DA64" t="n">
         <v>99</v>
+      </c>
+      <c r="DB64" t="n">
+        <v>183</v>
+      </c>
+      <c r="DC64" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="65">
@@ -21358,13 +21746,13 @@
         <v>20</v>
       </c>
       <c r="CV65" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CW65" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CX65" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CY65" t="n">
         <v>29</v>
@@ -21374,6 +21762,12 @@
       </c>
       <c r="DA65" t="n">
         <v>19</v>
+      </c>
+      <c r="DB65" t="n">
+        <v>42</v>
+      </c>
+      <c r="DC65" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="66">
@@ -21677,22 +22071,28 @@
         <v>501</v>
       </c>
       <c r="CV66" t="n">
-        <v>2499</v>
+        <v>2640</v>
       </c>
       <c r="CW66" t="n">
-        <v>828</v>
+        <v>884</v>
       </c>
       <c r="CX66" t="n">
-        <v>1671</v>
+        <v>1756</v>
       </c>
       <c r="CY66" t="n">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="CZ66" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="DA66" t="n">
-        <v>1002</v>
+        <v>1004</v>
+      </c>
+      <c r="DB66" t="n">
+        <v>1151</v>
+      </c>
+      <c r="DC66" t="n">
+        <v>2296</v>
       </c>
     </row>
     <row r="67">
@@ -21996,13 +22396,13 @@
         <v>425</v>
       </c>
       <c r="CV67" t="n">
-        <v>629</v>
+        <v>691</v>
       </c>
       <c r="CW67" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="CX67" t="n">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="CY67" t="n">
         <v>531</v>
@@ -22012,6 +22412,12 @@
       </c>
       <c r="DA67" t="n">
         <v>373</v>
+      </c>
+      <c r="DB67" t="n">
+        <v>555</v>
+      </c>
+      <c r="DC67" t="n">
+        <v>1888</v>
       </c>
     </row>
     <row r="68">
@@ -22315,22 +22721,28 @@
         <v>557</v>
       </c>
       <c r="CV68" t="n">
-        <v>1453</v>
+        <v>1592</v>
       </c>
       <c r="CW68" t="n">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="CX68" t="n">
-        <v>1033</v>
+        <v>1138</v>
       </c>
       <c r="CY68" t="n">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="CZ68" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="DA68" t="n">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="DB68" t="n">
+        <v>971</v>
+      </c>
+      <c r="DC68" t="n">
+        <v>2586</v>
       </c>
     </row>
     <row r="69">
@@ -22634,22 +23046,28 @@
         <v>88</v>
       </c>
       <c r="CV69" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="CW69" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="CX69" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="CY69" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CZ69" t="n">
         <v>21</v>
       </c>
       <c r="DA69" t="n">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="DB69" t="n">
+        <v>108</v>
+      </c>
+      <c r="DC69" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="70">
@@ -22953,22 +23371,28 @@
         <v>545</v>
       </c>
       <c r="CV70" t="n">
-        <v>1919</v>
+        <v>2075</v>
       </c>
       <c r="CW70" t="n">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="CX70" t="n">
-        <v>1387</v>
+        <v>1499</v>
       </c>
       <c r="CY70" t="n">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="CZ70" t="n">
         <v>366</v>
       </c>
       <c r="DA70" t="n">
-        <v>863</v>
+        <v>864</v>
+      </c>
+      <c r="DB70" t="n">
+        <v>787</v>
+      </c>
+      <c r="DC70" t="n">
+        <v>2374</v>
       </c>
     </row>
     <row r="71">
@@ -23272,13 +23696,13 @@
         <v>281</v>
       </c>
       <c r="CV71" t="n">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="CW71" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="CX71" t="n">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="CY71" t="n">
         <v>236</v>
@@ -23288,6 +23712,12 @@
       </c>
       <c r="DA71" t="n">
         <v>197</v>
+      </c>
+      <c r="DB71" t="n">
+        <v>241</v>
+      </c>
+      <c r="DC71" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="72">
@@ -23591,13 +24021,13 @@
         <v>81</v>
       </c>
       <c r="CV72" t="n">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="CW72" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="CX72" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="CY72" t="n">
         <v>140</v>
@@ -23607,6 +24037,12 @@
       </c>
       <c r="DA72" t="n">
         <v>104</v>
+      </c>
+      <c r="DB72" t="n">
+        <v>156</v>
+      </c>
+      <c r="DC72" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="73">
@@ -23910,13 +24346,13 @@
         <v>220</v>
       </c>
       <c r="CV73" t="n">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="CW73" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="CX73" t="n">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="CY73" t="n">
         <v>99</v>
@@ -23926,6 +24362,12 @@
       </c>
       <c r="DA73" t="n">
         <v>77</v>
+      </c>
+      <c r="DB73" t="n">
+        <v>216</v>
+      </c>
+      <c r="DC73" t="n">
+        <v>714</v>
       </c>
     </row>
     <row r="74">
@@ -24229,13 +24671,13 @@
         <v>104</v>
       </c>
       <c r="CV74" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="CW74" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CX74" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="CY74" t="n">
         <v>71</v>
@@ -24245,6 +24687,12 @@
       </c>
       <c r="DA74" t="n">
         <v>62</v>
+      </c>
+      <c r="DB74" t="n">
+        <v>54</v>
+      </c>
+      <c r="DC74" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="75">
@@ -24548,22 +24996,28 @@
         <v>627</v>
       </c>
       <c r="CV75" t="n">
-        <v>735</v>
+        <v>835</v>
       </c>
       <c r="CW75" t="n">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="CX75" t="n">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="CY75" t="n">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="CZ75" t="n">
         <v>194</v>
       </c>
       <c r="DA75" t="n">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="DB75" t="n">
+        <v>646</v>
+      </c>
+      <c r="DC75" t="n">
+        <v>2032</v>
       </c>
     </row>
     <row r="76">
@@ -24867,13 +25321,13 @@
         <v>118</v>
       </c>
       <c r="CV76" t="n">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="CW76" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="CX76" t="n">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="CY76" t="n">
         <v>149</v>
@@ -24883,6 +25337,12 @@
       </c>
       <c r="DA76" t="n">
         <v>120</v>
+      </c>
+      <c r="DB76" t="n">
+        <v>139</v>
+      </c>
+      <c r="DC76" t="n">
+        <v>439</v>
       </c>
     </row>
     <row r="77">
@@ -25186,22 +25646,28 @@
         <v>791</v>
       </c>
       <c r="CV77" t="n">
-        <v>3107</v>
+        <v>3284</v>
       </c>
       <c r="CW77" t="n">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="CX77" t="n">
-        <v>2285</v>
+        <v>2416</v>
       </c>
       <c r="CY77" t="n">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="CZ77" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="DA77" t="n">
         <v>1325</v>
+      </c>
+      <c r="DB77" t="n">
+        <v>1040</v>
+      </c>
+      <c r="DC77" t="n">
+        <v>3511</v>
       </c>
     </row>
     <row r="78">
@@ -25505,22 +25971,28 @@
         <v>2356</v>
       </c>
       <c r="CV78" t="n">
-        <v>5875</v>
+        <v>6324</v>
       </c>
       <c r="CW78" t="n">
-        <v>1343</v>
+        <v>1461</v>
       </c>
       <c r="CX78" t="n">
-        <v>4532</v>
+        <v>4863</v>
       </c>
       <c r="CY78" t="n">
-        <v>3987</v>
+        <v>3960</v>
       </c>
       <c r="CZ78" t="n">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="DA78" t="n">
-        <v>3102</v>
+        <v>3080</v>
+      </c>
+      <c r="DB78" t="n">
+        <v>1783</v>
+      </c>
+      <c r="DC78" t="n">
+        <v>5891</v>
       </c>
     </row>
     <row r="79">
@@ -25824,22 +26296,28 @@
         <v>654</v>
       </c>
       <c r="CV79" t="n">
-        <v>444</v>
+        <v>548</v>
       </c>
       <c r="CW79" t="n">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="CX79" t="n">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="CY79" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CZ79" t="n">
         <v>59</v>
       </c>
       <c r="DA79" t="n">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="DB79" t="n">
+        <v>413</v>
+      </c>
+      <c r="DC79" t="n">
+        <v>868</v>
       </c>
     </row>
     <row r="80">
@@ -26143,22 +26621,28 @@
         <v>477</v>
       </c>
       <c r="CV80" t="n">
-        <v>1120</v>
+        <v>1269</v>
       </c>
       <c r="CW80" t="n">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="CX80" t="n">
-        <v>865</v>
+        <v>982</v>
       </c>
       <c r="CY80" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="CZ80" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="DA80" t="n">
         <v>618</v>
+      </c>
+      <c r="DB80" t="n">
+        <v>756</v>
+      </c>
+      <c r="DC80" t="n">
+        <v>2629</v>
       </c>
     </row>
     <row r="81">
@@ -26479,6 +26963,12 @@
       <c r="DA81" t="n">
         <v>18</v>
       </c>
+      <c r="DB81" t="n">
+        <v>13</v>
+      </c>
+      <c r="DC81" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -26781,22 +27271,28 @@
         <v>313</v>
       </c>
       <c r="CV82" t="n">
-        <v>632</v>
+        <v>692</v>
       </c>
       <c r="CW82" t="n">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="CX82" t="n">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="CY82" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="CZ82" t="n">
         <v>94</v>
       </c>
       <c r="DA82" t="n">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="DB82" t="n">
+        <v>396</v>
+      </c>
+      <c r="DC82" t="n">
+        <v>1689</v>
       </c>
     </row>
     <row r="83">
@@ -27100,13 +27596,13 @@
         <v>5</v>
       </c>
       <c r="CV83" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="CW83" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CX83" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="CY83" t="n">
         <v>12</v>
@@ -27116,6 +27612,12 @@
       </c>
       <c r="DA83" t="n">
         <v>11</v>
+      </c>
+      <c r="DB83" t="n">
+        <v>8</v>
+      </c>
+      <c r="DC83" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -27419,13 +27921,13 @@
         <v>116</v>
       </c>
       <c r="CV84" t="n">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="CW84" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CX84" t="n">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="CY84" t="n">
         <v>127</v>
@@ -27435,6 +27937,12 @@
       </c>
       <c r="DA84" t="n">
         <v>105</v>
+      </c>
+      <c r="DB84" t="n">
+        <v>131</v>
+      </c>
+      <c r="DC84" t="n">
+        <v>478</v>
       </c>
     </row>
     <row r="85">
@@ -27738,22 +28246,28 @@
         <v>235</v>
       </c>
       <c r="CV85" t="n">
-        <v>1166</v>
+        <v>1233</v>
       </c>
       <c r="CW85" t="n">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="CX85" t="n">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c r="CY85" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="CZ85" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="DA85" t="n">
         <v>434</v>
+      </c>
+      <c r="DB85" t="n">
+        <v>418</v>
+      </c>
+      <c r="DC85" t="n">
+        <v>866</v>
       </c>
     </row>
     <row r="86">
@@ -28057,22 +28571,28 @@
         <v>481</v>
       </c>
       <c r="CV86" t="n">
-        <v>1436</v>
+        <v>1531</v>
       </c>
       <c r="CW86" t="n">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="CX86" t="n">
-        <v>1023</v>
+        <v>1096</v>
       </c>
       <c r="CY86" t="n">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="CZ86" t="n">
         <v>177</v>
       </c>
       <c r="DA86" t="n">
-        <v>513</v>
+        <v>507</v>
+      </c>
+      <c r="DB86" t="n">
+        <v>406</v>
+      </c>
+      <c r="DC86" t="n">
+        <v>1168</v>
       </c>
     </row>
     <row r="87">
@@ -28376,13 +28896,13 @@
         <v>152</v>
       </c>
       <c r="CV87" t="n">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="CW87" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="CX87" t="n">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="CY87" t="n">
         <v>211</v>
@@ -28392,6 +28912,12 @@
       </c>
       <c r="DA87" t="n">
         <v>170</v>
+      </c>
+      <c r="DB87" t="n">
+        <v>171</v>
+      </c>
+      <c r="DC87" t="n">
+        <v>566</v>
       </c>
     </row>
     <row r="88">
@@ -28695,13 +29221,13 @@
         <v>303</v>
       </c>
       <c r="CV88" t="n">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="CW88" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CX88" t="n">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="CY88" t="n">
         <v>261</v>
@@ -28711,6 +29237,12 @@
       </c>
       <c r="DA88" t="n">
         <v>201</v>
+      </c>
+      <c r="DB88" t="n">
+        <v>245</v>
+      </c>
+      <c r="DC88" t="n">
+        <v>994</v>
       </c>
     </row>
     <row r="89">
@@ -29014,13 +29546,13 @@
         <v>149</v>
       </c>
       <c r="CV89" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="CW89" t="n">
         <v>51</v>
       </c>
       <c r="CX89" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="CY89" t="n">
         <v>126</v>
@@ -29030,6 +29562,12 @@
       </c>
       <c r="DA89" t="n">
         <v>100</v>
+      </c>
+      <c r="DB89" t="n">
+        <v>98</v>
+      </c>
+      <c r="DC89" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="90">
@@ -29333,13 +29871,13 @@
         <v>167</v>
       </c>
       <c r="CV90" t="n">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="CW90" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="CX90" t="n">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="CY90" t="n">
         <v>171</v>
@@ -29349,6 +29887,12 @@
       </c>
       <c r="DA90" t="n">
         <v>141</v>
+      </c>
+      <c r="DB90" t="n">
+        <v>148</v>
+      </c>
+      <c r="DC90" t="n">
+        <v>672</v>
       </c>
     </row>
     <row r="91">
@@ -29652,22 +30196,28 @@
         <v>232</v>
       </c>
       <c r="CV91" t="n">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="CW91" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="CX91" t="n">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="CY91" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CZ91" t="n">
         <v>37</v>
       </c>
       <c r="DA91" t="n">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="DB91" t="n">
+        <v>261</v>
+      </c>
+      <c r="DC91" t="n">
+        <v>685</v>
       </c>
     </row>
     <row r="92">
@@ -29971,13 +30521,13 @@
         <v>92</v>
       </c>
       <c r="CV92" t="n">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="CW92" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="CX92" t="n">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="CY92" t="n">
         <v>163</v>
@@ -29987,6 +30537,12 @@
       </c>
       <c r="DA92" t="n">
         <v>126</v>
+      </c>
+      <c r="DB92" t="n">
+        <v>167</v>
+      </c>
+      <c r="DC92" t="n">
+        <v>545</v>
       </c>
     </row>
     <row r="93">
@@ -30290,13 +30846,13 @@
         <v>84</v>
       </c>
       <c r="CV93" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="CW93" t="n">
         <v>24</v>
       </c>
       <c r="CX93" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="CY93" t="n">
         <v>83</v>
@@ -30306,6 +30862,12 @@
       </c>
       <c r="DA93" t="n">
         <v>62</v>
+      </c>
+      <c r="DB93" t="n">
+        <v>72</v>
+      </c>
+      <c r="DC93" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="94">
@@ -30609,22 +31171,28 @@
         <v>867</v>
       </c>
       <c r="CV94" t="n">
-        <v>1777</v>
+        <v>1925</v>
       </c>
       <c r="CW94" t="n">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="CX94" t="n">
-        <v>1361</v>
+        <v>1473</v>
       </c>
       <c r="CY94" t="n">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="CZ94" t="n">
         <v>250</v>
       </c>
       <c r="DA94" t="n">
-        <v>896</v>
+        <v>897</v>
+      </c>
+      <c r="DB94" t="n">
+        <v>702</v>
+      </c>
+      <c r="DC94" t="n">
+        <v>2554</v>
       </c>
     </row>
     <row r="95">
@@ -30928,22 +31496,28 @@
         <v>378</v>
       </c>
       <c r="CV95" t="n">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="CW95" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="CX95" t="n">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="CY95" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CZ95" t="n">
         <v>62</v>
       </c>
       <c r="DA95" t="n">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="DB95" t="n">
+        <v>276</v>
+      </c>
+      <c r="DC95" t="n">
+        <v>954</v>
       </c>
     </row>
     <row r="96">
@@ -31247,22 +31821,28 @@
         <v>200</v>
       </c>
       <c r="CV96" t="n">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="CW96" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="CX96" t="n">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="CY96" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CZ96" t="n">
         <v>61</v>
       </c>
       <c r="DA96" t="n">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="DB96" t="n">
+        <v>222</v>
+      </c>
+      <c r="DC96" t="n">
+        <v>829</v>
       </c>
     </row>
     <row r="97">
@@ -31564,22 +32144,28 @@
         <v>2365</v>
       </c>
       <c r="CV97" t="n">
-        <v>8210</v>
+        <v>8779</v>
       </c>
       <c r="CW97" t="n">
-        <v>2378</v>
+        <v>2548</v>
       </c>
       <c r="CX97" t="n">
-        <v>5832</v>
+        <v>6231</v>
       </c>
       <c r="CY97" t="n">
-        <v>5664</v>
+        <v>5668</v>
       </c>
       <c r="CZ97" t="n">
         <v>1651</v>
       </c>
       <c r="DA97" t="n">
-        <v>4013</v>
+        <v>4017</v>
+      </c>
+      <c r="DB97" t="n">
+        <v>3360</v>
+      </c>
+      <c r="DC97" t="n">
+        <v>7364</v>
       </c>
     </row>
     <row r="98">
@@ -31883,22 +32469,28 @@
         <v>559</v>
       </c>
       <c r="CV98" t="n">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="CW98" t="n">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="CX98" t="n">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="CY98" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="CZ98" t="n">
         <v>129</v>
       </c>
       <c r="DA98" t="n">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="DB98" t="n">
+        <v>436</v>
+      </c>
+      <c r="DC98" t="n">
+        <v>1302</v>
       </c>
     </row>
     <row r="99">
@@ -32202,22 +32794,28 @@
         <v>696</v>
       </c>
       <c r="CV99" t="n">
-        <v>1049</v>
+        <v>1134</v>
       </c>
       <c r="CW99" t="n">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="CX99" t="n">
-        <v>854</v>
+        <v>921</v>
       </c>
       <c r="CY99" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="CZ99" t="n">
         <v>147</v>
       </c>
       <c r="DA99" t="n">
-        <v>524</v>
+        <v>525</v>
+      </c>
+      <c r="DB99" t="n">
+        <v>706</v>
+      </c>
+      <c r="DC99" t="n">
+        <v>2922</v>
       </c>
     </row>
     <row r="100">
@@ -32521,22 +33119,28 @@
         <v>34</v>
       </c>
       <c r="CV100" t="n">
+        <v>74</v>
+      </c>
+      <c r="CW100" t="n">
+        <v>25</v>
+      </c>
+      <c r="CX100" t="n">
         <v>49</v>
       </c>
-      <c r="CW100" t="n">
-        <v>19</v>
-      </c>
-      <c r="CX100" t="n">
-        <v>30</v>
-      </c>
       <c r="CY100" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CZ100" t="n">
         <v>5</v>
       </c>
       <c r="DA100" t="n">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="DB100" t="n">
+        <v>64</v>
+      </c>
+      <c r="DC100" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="101">
@@ -32840,13 +33444,13 @@
         <v>11</v>
       </c>
       <c r="CV101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW101" t="n">
         <v>4</v>
       </c>
       <c r="CX101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CY101" t="n">
         <v>12</v>
@@ -32856,6 +33460,12 @@
       </c>
       <c r="DA101" t="n">
         <v>4</v>
+      </c>
+      <c r="DB101" t="n">
+        <v>14</v>
+      </c>
+      <c r="DC101" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -33159,13 +33769,13 @@
         <v>249</v>
       </c>
       <c r="CV102" t="n">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="CW102" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="CX102" t="n">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="CY102" t="n">
         <v>176</v>
@@ -33175,6 +33785,12 @@
       </c>
       <c r="DA102" t="n">
         <v>136</v>
+      </c>
+      <c r="DB102" t="n">
+        <v>217</v>
+      </c>
+      <c r="DC102" t="n">
+        <v>926</v>
       </c>
     </row>
     <row r="103">
@@ -33478,13 +34094,13 @@
         <v>805</v>
       </c>
       <c r="CV103" t="n">
-        <v>1143</v>
+        <v>1237</v>
       </c>
       <c r="CW103" t="n">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="CX103" t="n">
-        <v>936</v>
+        <v>1010</v>
       </c>
       <c r="CY103" t="n">
         <v>843</v>
@@ -33494,6 +34110,12 @@
       </c>
       <c r="DA103" t="n">
         <v>685</v>
+      </c>
+      <c r="DB103" t="n">
+        <v>784</v>
+      </c>
+      <c r="DC103" t="n">
+        <v>3527</v>
       </c>
     </row>
     <row r="104">
@@ -33797,22 +34419,28 @@
         <v>56</v>
       </c>
       <c r="CV104" t="n">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="CW104" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="CX104" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="CY104" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CZ104" t="n">
         <v>12</v>
       </c>
       <c r="DA104" t="n">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="DB104" t="n">
+        <v>81</v>
+      </c>
+      <c r="DC104" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="105">
@@ -34116,13 +34744,13 @@
         <v>44</v>
       </c>
       <c r="CV105" t="n">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="CW105" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="CX105" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="CY105" t="n">
         <v>72</v>
@@ -34132,6 +34760,12 @@
       </c>
       <c r="DA105" t="n">
         <v>54</v>
+      </c>
+      <c r="DB105" t="n">
+        <v>64</v>
+      </c>
+      <c r="DC105" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="106">
@@ -34435,13 +35069,13 @@
         <v>134</v>
       </c>
       <c r="CV106" t="n">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="CW106" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="CX106" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="CY106" t="n">
         <v>93</v>
@@ -34451,6 +35085,12 @@
       </c>
       <c r="DA106" t="n">
         <v>68</v>
+      </c>
+      <c r="DB106" t="n">
+        <v>142</v>
+      </c>
+      <c r="DC106" t="n">
+        <v>446</v>
       </c>
     </row>
     <row r="107">
@@ -34754,22 +35394,28 @@
         <v>334</v>
       </c>
       <c r="CV107" t="n">
-        <v>947</v>
+        <v>1300</v>
       </c>
       <c r="CW107" t="n">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="CX107" t="n">
-        <v>705</v>
+        <v>964</v>
       </c>
       <c r="CY107" t="n">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="CZ107" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DA107" t="n">
-        <v>519</v>
+        <v>522</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>1041</v>
+      </c>
+      <c r="DC107" t="n">
+        <v>3148</v>
       </c>
     </row>
     <row r="108">
@@ -35073,13 +35719,13 @@
         <v>237</v>
       </c>
       <c r="CV108" t="n">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="CW108" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CX108" t="n">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="CY108" t="n">
         <v>159</v>
@@ -35089,6 +35735,12 @@
       </c>
       <c r="DA108" t="n">
         <v>126</v>
+      </c>
+      <c r="DB108" t="n">
+        <v>147</v>
+      </c>
+      <c r="DC108" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="109">
@@ -35392,22 +36044,28 @@
         <v>537</v>
       </c>
       <c r="CV109" t="n">
-        <v>959</v>
+        <v>1029</v>
       </c>
       <c r="CW109" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="CX109" t="n">
-        <v>819</v>
+        <v>881</v>
       </c>
       <c r="CY109" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="CZ109" t="n">
         <v>102</v>
       </c>
       <c r="DA109" t="n">
-        <v>576</v>
+        <v>577</v>
+      </c>
+      <c r="DB109" t="n">
+        <v>506</v>
+      </c>
+      <c r="DC109" t="n">
+        <v>3098</v>
       </c>
     </row>
     <row r="110">
@@ -35711,22 +36369,28 @@
         <v>256</v>
       </c>
       <c r="CV110" t="n">
-        <v>481</v>
+        <v>635</v>
       </c>
       <c r="CW110" t="n">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="CX110" t="n">
-        <v>368</v>
+        <v>490</v>
       </c>
       <c r="CY110" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CZ110" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="DA110" t="n">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>495</v>
+      </c>
+      <c r="DC110" t="n">
+        <v>1649</v>
       </c>
     </row>
     <row r="111">
@@ -36030,13 +36694,13 @@
         <v>53</v>
       </c>
       <c r="CV111" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="CW111" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CX111" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="CY111" t="n">
         <v>39</v>
@@ -36046,6 +36710,12 @@
       </c>
       <c r="DA111" t="n">
         <v>27</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>29</v>
+      </c>
+      <c r="DC111" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="112">
@@ -36349,22 +37019,28 @@
         <v>584</v>
       </c>
       <c r="CV112" t="n">
-        <v>2089</v>
+        <v>2252</v>
       </c>
       <c r="CW112" t="n">
-        <v>708</v>
+        <v>769</v>
       </c>
       <c r="CX112" t="n">
-        <v>1381</v>
+        <v>1483</v>
       </c>
       <c r="CY112" t="n">
-        <v>1425</v>
+        <v>1432</v>
       </c>
       <c r="CZ112" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="DA112" t="n">
-        <v>982</v>
+        <v>988</v>
+      </c>
+      <c r="DB112" t="n">
+        <v>789</v>
+      </c>
+      <c r="DC112" t="n">
+        <v>1591</v>
       </c>
     </row>
     <row r="113">
@@ -36668,22 +37344,28 @@
         <v>395</v>
       </c>
       <c r="CV113" t="n">
-        <v>1737</v>
+        <v>1818</v>
       </c>
       <c r="CW113" t="n">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="CX113" t="n">
-        <v>1256</v>
+        <v>1311</v>
       </c>
       <c r="CY113" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="CZ113" t="n">
         <v>273</v>
       </c>
       <c r="DA113" t="n">
-        <v>710</v>
+        <v>711</v>
+      </c>
+      <c r="DB113" t="n">
+        <v>703</v>
+      </c>
+      <c r="DC113" t="n">
+        <v>1913</v>
       </c>
     </row>
     <row r="114">
@@ -36987,13 +37669,13 @@
         <v>274</v>
       </c>
       <c r="CV114" t="n">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="CW114" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="CX114" t="n">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="CY114" t="n">
         <v>218</v>
@@ -37003,6 +37685,12 @@
       </c>
       <c r="DA114" t="n">
         <v>173</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>318</v>
+      </c>
+      <c r="DC114" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="115">
@@ -37306,13 +37994,13 @@
         <v>244</v>
       </c>
       <c r="CV115" t="n">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="CW115" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="CX115" t="n">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="CY115" t="n">
         <v>266</v>
@@ -37322,6 +38010,12 @@
       </c>
       <c r="DA115" t="n">
         <v>201</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>276</v>
+      </c>
+      <c r="DC115" t="n">
+        <v>865</v>
       </c>
     </row>
     <row r="116">
@@ -37623,22 +38317,28 @@
         <v>179</v>
       </c>
       <c r="CV116" t="n">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="CW116" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="CX116" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="CY116" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ116" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DA116" t="n">
         <v>115</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>136</v>
+      </c>
+      <c r="DC116" t="n">
+        <v>440</v>
       </c>
     </row>
     <row r="117">
@@ -37942,22 +38642,28 @@
         <v>124</v>
       </c>
       <c r="CV117" t="n">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="CW117" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CX117" t="n">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="CY117" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CZ117" t="n">
         <v>47</v>
       </c>
       <c r="DA117" t="n">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>200</v>
+      </c>
+      <c r="DC117" t="n">
+        <v>527</v>
       </c>
     </row>
     <row r="118">
@@ -38261,22 +38967,28 @@
         <v>275</v>
       </c>
       <c r="CV118" t="n">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="CW118" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CX118" t="n">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="CY118" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CZ118" t="n">
         <v>47</v>
       </c>
       <c r="DA118" t="n">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="DB118" t="n">
+        <v>208</v>
+      </c>
+      <c r="DC118" t="n">
+        <v>1059</v>
       </c>
     </row>
     <row r="119">
@@ -38578,22 +39290,28 @@
         <v>99</v>
       </c>
       <c r="CV119" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="CW119" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CX119" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="CY119" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="CZ119" t="n">
         <v>23</v>
       </c>
       <c r="DA119" t="n">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="DB119" t="n">
+        <v>85</v>
+      </c>
+      <c r="DC119" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="120">
@@ -38888,31 +39606,37 @@
         <v>709</v>
       </c>
       <c r="CS120" t="n">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="CT120" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CU120" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="CV120" t="n">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="CW120" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="CX120" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="CY120" t="n">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="CZ120" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="DA120" t="n">
-        <v>19</v>
+        <v>169</v>
+      </c>
+      <c r="DB120" t="n">
+        <v>94</v>
+      </c>
+      <c r="DC120" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="121">
@@ -39216,13 +39940,13 @@
         <v>13</v>
       </c>
       <c r="CV121" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW121" t="n">
         <v>2</v>
       </c>
       <c r="CX121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CY121" t="n">
         <v>8</v>
@@ -39232,6 +39956,12 @@
       </c>
       <c r="DA121" t="n">
         <v>6</v>
+      </c>
+      <c r="DB121" t="n">
+        <v>9</v>
+      </c>
+      <c r="DC121" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="122">
@@ -39535,22 +40265,28 @@
         <v>64</v>
       </c>
       <c r="CV122" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="CW122" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CX122" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="CY122" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CZ122" t="n">
         <v>42</v>
       </c>
       <c r="DA122" t="n">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="DB122" t="n">
+        <v>69</v>
+      </c>
+      <c r="DC122" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="123">
@@ -39854,13 +40590,13 @@
         <v>225</v>
       </c>
       <c r="CV123" t="n">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="CW123" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="CX123" t="n">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="CY123" t="n">
         <v>214</v>
@@ -39870,6 +40606,12 @@
       </c>
       <c r="DA123" t="n">
         <v>159</v>
+      </c>
+      <c r="DB123" t="n">
+        <v>268</v>
+      </c>
+      <c r="DC123" t="n">
+        <v>839</v>
       </c>
     </row>
     <row r="124">
@@ -40188,6 +40930,12 @@
       <c r="DA124" t="n">
         <v>6</v>
       </c>
+      <c r="DB124" t="n">
+        <v>11</v>
+      </c>
+      <c r="DC124" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -40490,13 +41238,13 @@
         <v>151</v>
       </c>
       <c r="CV125" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="CW125" t="n">
         <v>22</v>
       </c>
       <c r="CX125" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="CY125" t="n">
         <v>109</v>
@@ -40506,6 +41254,12 @@
       </c>
       <c r="DA125" t="n">
         <v>87</v>
+      </c>
+      <c r="DB125" t="n">
+        <v>91</v>
+      </c>
+      <c r="DC125" t="n">
+        <v>333</v>
       </c>
     </row>
     <row r="126">
@@ -40809,13 +41563,13 @@
         <v>195</v>
       </c>
       <c r="CV126" t="n">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="CW126" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="CX126" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="CY126" t="n">
         <v>126</v>
@@ -40825,6 +41579,12 @@
       </c>
       <c r="DA126" t="n">
         <v>94</v>
+      </c>
+      <c r="DB126" t="n">
+        <v>279</v>
+      </c>
+      <c r="DC126" t="n">
+        <v>671</v>
       </c>
     </row>
     <row r="127">
@@ -41128,13 +41888,13 @@
         <v>36</v>
       </c>
       <c r="CV127" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="CW127" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CX127" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CY127" t="n">
         <v>53</v>
@@ -41144,6 +41904,12 @@
       </c>
       <c r="DA127" t="n">
         <v>35</v>
+      </c>
+      <c r="DB127" t="n">
+        <v>67</v>
+      </c>
+      <c r="DC127" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="128">
@@ -41447,13 +42213,13 @@
         <v>147</v>
       </c>
       <c r="CV128" t="n">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="CW128" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="CX128" t="n">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="CY128" t="n">
         <v>175</v>
@@ -41463,6 +42229,12 @@
       </c>
       <c r="DA128" t="n">
         <v>148</v>
+      </c>
+      <c r="DB128" t="n">
+        <v>168</v>
+      </c>
+      <c r="DC128" t="n">
+        <v>765</v>
       </c>
     </row>
     <row r="129">
@@ -41766,13 +42538,13 @@
         <v>99</v>
       </c>
       <c r="CV129" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="CW129" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="CX129" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="CY129" t="n">
         <v>114</v>
@@ -41782,6 +42554,12 @@
       </c>
       <c r="DA129" t="n">
         <v>93</v>
+      </c>
+      <c r="DB129" t="n">
+        <v>159</v>
+      </c>
+      <c r="DC129" t="n">
+        <v>495</v>
       </c>
     </row>
     <row r="130">
@@ -42085,13 +42863,13 @@
         <v>100</v>
       </c>
       <c r="CV130" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="CW130" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CX130" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="CY130" t="n">
         <v>94</v>
@@ -42101,6 +42879,12 @@
       </c>
       <c r="DA130" t="n">
         <v>70</v>
+      </c>
+      <c r="DB130" t="n">
+        <v>97</v>
+      </c>
+      <c r="DC130" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="131">
@@ -42404,13 +43188,13 @@
         <v>83</v>
       </c>
       <c r="CV131" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="CW131" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CX131" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="CY131" t="n">
         <v>108</v>
@@ -42420,6 +43204,12 @@
       </c>
       <c r="DA131" t="n">
         <v>91</v>
+      </c>
+      <c r="DB131" t="n">
+        <v>63</v>
+      </c>
+      <c r="DC131" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="132">
@@ -42723,22 +43513,28 @@
         <v>532</v>
       </c>
       <c r="CV132" t="n">
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="CW132" t="n">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="CX132" t="n">
-        <v>666</v>
+        <v>718</v>
       </c>
       <c r="CY132" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="CZ132" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="DA132" t="n">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="DB132" t="n">
+        <v>779</v>
+      </c>
+      <c r="DC132" t="n">
+        <v>2341</v>
       </c>
     </row>
     <row r="133">
@@ -43042,13 +43838,13 @@
         <v>211</v>
       </c>
       <c r="CV133" t="n">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="CW133" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="CX133" t="n">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="CY133" t="n">
         <v>218</v>
@@ -43058,6 +43854,12 @@
       </c>
       <c r="DA133" t="n">
         <v>158</v>
+      </c>
+      <c r="DB133" t="n">
+        <v>412</v>
+      </c>
+      <c r="DC133" t="n">
+        <v>1166</v>
       </c>
     </row>
     <row r="134">
@@ -43361,22 +44163,28 @@
         <v>353</v>
       </c>
       <c r="CV134" t="n">
-        <v>1150</v>
+        <v>1274</v>
       </c>
       <c r="CW134" t="n">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="CX134" t="n">
-        <v>789</v>
+        <v>883</v>
       </c>
       <c r="CY134" t="n">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="CZ134" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="DA134" t="n">
         <v>482</v>
+      </c>
+      <c r="DB134" t="n">
+        <v>568</v>
+      </c>
+      <c r="DC134" t="n">
+        <v>1468</v>
       </c>
     </row>
     <row r="135">
@@ -43680,22 +44488,28 @@
         <v>554</v>
       </c>
       <c r="CV135" t="n">
-        <v>1464</v>
+        <v>1616</v>
       </c>
       <c r="CW135" t="n">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="CX135" t="n">
-        <v>1127</v>
+        <v>1235</v>
       </c>
       <c r="CY135" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="CZ135" t="n">
         <v>238</v>
       </c>
       <c r="DA135" t="n">
-        <v>782</v>
+        <v>783</v>
+      </c>
+      <c r="DB135" t="n">
+        <v>557</v>
+      </c>
+      <c r="DC135" t="n">
+        <v>1889</v>
       </c>
     </row>
     <row r="136">
@@ -43999,13 +44813,13 @@
         <v>118</v>
       </c>
       <c r="CV136" t="n">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="CW136" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CX136" t="n">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="CY136" t="n">
         <v>110</v>
@@ -44015,6 +44829,12 @@
       </c>
       <c r="DA136" t="n">
         <v>88</v>
+      </c>
+      <c r="DB136" t="n">
+        <v>101</v>
+      </c>
+      <c r="DC136" t="n">
+        <v>433</v>
       </c>
     </row>
     <row r="137">
@@ -44318,22 +45138,28 @@
         <v>343</v>
       </c>
       <c r="CV137" t="n">
-        <v>683</v>
+        <v>795</v>
       </c>
       <c r="CW137" t="n">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="CX137" t="n">
-        <v>469</v>
+        <v>546</v>
       </c>
       <c r="CY137" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="CZ137" t="n">
         <v>91</v>
       </c>
       <c r="DA137" t="n">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="DB137" t="n">
+        <v>513</v>
+      </c>
+      <c r="DC137" t="n">
+        <v>1224</v>
       </c>
     </row>
     <row r="138">
@@ -44637,22 +45463,28 @@
         <v>36</v>
       </c>
       <c r="CV138" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="CW138" t="n">
         <v>11</v>
       </c>
       <c r="CX138" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="CY138" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CZ138" t="n">
         <v>18</v>
       </c>
       <c r="DA138" t="n">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="DB138" t="n">
+        <v>63</v>
+      </c>
+      <c r="DC138" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="139">
@@ -44956,22 +45788,28 @@
         <v>443</v>
       </c>
       <c r="CV139" t="n">
-        <v>739</v>
+        <v>802</v>
       </c>
       <c r="CW139" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="CX139" t="n">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="CY139" t="n">
         <v>491</v>
       </c>
       <c r="CZ139" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DA139" t="n">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="DB139" t="n">
+        <v>452</v>
+      </c>
+      <c r="DC139" t="n">
+        <v>1654</v>
       </c>
     </row>
     <row r="140">
@@ -45275,22 +46113,28 @@
         <v>859</v>
       </c>
       <c r="CV140" t="n">
-        <v>806</v>
+        <v>896</v>
       </c>
       <c r="CW140" t="n">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="CX140" t="n">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="CY140" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="CZ140" t="n">
         <v>141</v>
       </c>
       <c r="DA140" t="n">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="DB140" t="n">
+        <v>558</v>
+      </c>
+      <c r="DC140" t="n">
+        <v>2237</v>
       </c>
     </row>
     <row r="141">
@@ -45594,22 +46438,28 @@
         <v>764</v>
       </c>
       <c r="CV141" t="n">
-        <v>2187</v>
+        <v>2348</v>
       </c>
       <c r="CW141" t="n">
-        <v>749</v>
+        <v>796</v>
       </c>
       <c r="CX141" t="n">
-        <v>1438</v>
+        <v>1552</v>
       </c>
       <c r="CY141" t="n">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="CZ141" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="DA141" t="n">
-        <v>847</v>
+        <v>850</v>
+      </c>
+      <c r="DB141" t="n">
+        <v>1114</v>
+      </c>
+      <c r="DC141" t="n">
+        <v>2401</v>
       </c>
     </row>
     <row r="142">
@@ -45913,22 +46763,28 @@
         <v>611</v>
       </c>
       <c r="CV142" t="n">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="CW142" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="CX142" t="n">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="CY142" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="CZ142" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="DA142" t="n">
         <v>409</v>
+      </c>
+      <c r="DB142" t="n">
+        <v>384</v>
+      </c>
+      <c r="DC142" t="n">
+        <v>2350</v>
       </c>
     </row>
     <row r="143">
@@ -46232,13 +47088,13 @@
         <v>221</v>
       </c>
       <c r="CV143" t="n">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="CW143" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="CX143" t="n">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="CY143" t="n">
         <v>317</v>
@@ -46248,6 +47104,12 @@
       </c>
       <c r="DA143" t="n">
         <v>237</v>
+      </c>
+      <c r="DB143" t="n">
+        <v>269</v>
+      </c>
+      <c r="DC143" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="144">
@@ -46551,13 +47413,13 @@
         <v>550</v>
       </c>
       <c r="CV144" t="n">
-        <v>1056</v>
+        <v>1069</v>
       </c>
       <c r="CW144" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="CX144" t="n">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="CY144" t="n">
         <v>524</v>
@@ -46567,6 +47429,12 @@
       </c>
       <c r="DA144" t="n">
         <v>421</v>
+      </c>
+      <c r="DB144" t="n">
+        <v>689</v>
+      </c>
+      <c r="DC144" t="n">
+        <v>3018</v>
       </c>
     </row>
     <row r="145">
@@ -46870,13 +47738,13 @@
         <v>175</v>
       </c>
       <c r="CV145" t="n">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="CW145" t="n">
         <v>97</v>
       </c>
       <c r="CX145" t="n">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="CY145" t="n">
         <v>191</v>
@@ -46886,6 +47754,12 @@
       </c>
       <c r="DA145" t="n">
         <v>145</v>
+      </c>
+      <c r="DB145" t="n">
+        <v>201</v>
+      </c>
+      <c r="DC145" t="n">
+        <v>790</v>
       </c>
     </row>
     <row r="146">
@@ -47189,13 +48063,13 @@
         <v>177</v>
       </c>
       <c r="CV146" t="n">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="CW146" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CX146" t="n">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="CY146" t="n">
         <v>163</v>
@@ -47205,6 +48079,12 @@
       </c>
       <c r="DA146" t="n">
         <v>122</v>
+      </c>
+      <c r="DB146" t="n">
+        <v>139</v>
+      </c>
+      <c r="DC146" t="n">
+        <v>483</v>
       </c>
     </row>
     <row r="147">
@@ -47508,13 +48388,13 @@
         <v>77</v>
       </c>
       <c r="CV147" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="CW147" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CX147" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CY147" t="n">
         <v>46</v>
@@ -47524,6 +48404,12 @@
       </c>
       <c r="DA147" t="n">
         <v>33</v>
+      </c>
+      <c r="DB147" t="n">
+        <v>95</v>
+      </c>
+      <c r="DC147" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="148">
@@ -47827,22 +48713,28 @@
         <v>267</v>
       </c>
       <c r="CV148" t="n">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="CW148" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="CX148" t="n">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="CY148" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CZ148" t="n">
         <v>71</v>
       </c>
       <c r="DA148" t="n">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="DB148" t="n">
+        <v>345</v>
+      </c>
+      <c r="DC148" t="n">
+        <v>1031</v>
       </c>
     </row>
     <row r="149">
@@ -48146,13 +49038,13 @@
         <v>83</v>
       </c>
       <c r="CV149" t="n">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="CW149" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="CX149" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="CY149" t="n">
         <v>100</v>
@@ -48162,6 +49054,12 @@
       </c>
       <c r="DA149" t="n">
         <v>61</v>
+      </c>
+      <c r="DB149" t="n">
+        <v>156</v>
+      </c>
+      <c r="DC149" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="150">
@@ -48465,13 +49363,13 @@
         <v>123</v>
       </c>
       <c r="CV150" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="CW150" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="CX150" t="n">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="CY150" t="n">
         <v>159</v>
@@ -48481,6 +49379,12 @@
       </c>
       <c r="DA150" t="n">
         <v>107</v>
+      </c>
+      <c r="DB150" t="n">
+        <v>190</v>
+      </c>
+      <c r="DC150" t="n">
+        <v>525</v>
       </c>
     </row>
     <row r="151">
@@ -48784,13 +49688,13 @@
         <v>255</v>
       </c>
       <c r="CV151" t="n">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="CW151" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="CX151" t="n">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="CY151" t="n">
         <v>249</v>
@@ -48800,6 +49704,12 @@
       </c>
       <c r="DA151" t="n">
         <v>203</v>
+      </c>
+      <c r="DB151" t="n">
+        <v>351</v>
+      </c>
+      <c r="DC151" t="n">
+        <v>1283</v>
       </c>
     </row>
     <row r="152">
@@ -49103,22 +50013,28 @@
         <v>838</v>
       </c>
       <c r="CV152" t="n">
-        <v>1944</v>
+        <v>2235</v>
       </c>
       <c r="CW152" t="n">
-        <v>622</v>
+        <v>734</v>
       </c>
       <c r="CX152" t="n">
-        <v>1322</v>
+        <v>1501</v>
       </c>
       <c r="CY152" t="n">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="CZ152" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="DA152" t="n">
-        <v>870</v>
+        <v>867</v>
+      </c>
+      <c r="DB152" t="n">
+        <v>883</v>
+      </c>
+      <c r="DC152" t="n">
+        <v>2276</v>
       </c>
     </row>
     <row r="153">
@@ -49422,22 +50338,28 @@
         <v>475</v>
       </c>
       <c r="CV153" t="n">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="CW153" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="CX153" t="n">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="CY153" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="CZ153" t="n">
         <v>50</v>
       </c>
       <c r="DA153" t="n">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="DB153" t="n">
+        <v>290</v>
+      </c>
+      <c r="DC153" t="n">
+        <v>1867</v>
       </c>
     </row>
     <row r="154">
@@ -49741,22 +50663,28 @@
         <v>56</v>
       </c>
       <c r="CV154" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CW154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CX154" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CY154" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CZ154" t="n">
         <v>25</v>
       </c>
       <c r="DA154" t="n">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="DB154" t="n">
+        <v>112</v>
+      </c>
+      <c r="DC154" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="155">
@@ -50060,13 +50988,13 @@
         <v>53</v>
       </c>
       <c r="CV155" t="n">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="CW155" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="CX155" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="CY155" t="n">
         <v>114</v>
@@ -50076,6 +51004,12 @@
       </c>
       <c r="DA155" t="n">
         <v>69</v>
+      </c>
+      <c r="DB155" t="n">
+        <v>145</v>
+      </c>
+      <c r="DC155" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="156">
@@ -50379,13 +51313,13 @@
         <v>66</v>
       </c>
       <c r="CV156" t="n">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="CW156" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="CX156" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="CY156" t="n">
         <v>98</v>
@@ -50395,6 +51329,12 @@
       </c>
       <c r="DA156" t="n">
         <v>62</v>
+      </c>
+      <c r="DB156" t="n">
+        <v>187</v>
+      </c>
+      <c r="DC156" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="157">
@@ -50698,13 +51638,13 @@
         <v>116</v>
       </c>
       <c r="CV157" t="n">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="CW157" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="CX157" t="n">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="CY157" t="n">
         <v>97</v>
@@ -50714,6 +51654,12 @@
       </c>
       <c r="DA157" t="n">
         <v>66</v>
+      </c>
+      <c r="DB157" t="n">
+        <v>226</v>
+      </c>
+      <c r="DC157" t="n">
+        <v>446</v>
       </c>
     </row>
     <row r="158">
@@ -51017,13 +51963,13 @@
         <v>17</v>
       </c>
       <c r="CV158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW158" t="n">
         <v>2</v>
       </c>
       <c r="CX158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CY158" t="n">
         <v>3</v>
@@ -51033,6 +51979,12 @@
       </c>
       <c r="DA158" t="n">
         <v>2</v>
+      </c>
+      <c r="DB158" t="n">
+        <v>12</v>
+      </c>
+      <c r="DC158" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="159">
@@ -51336,13 +52288,13 @@
         <v>22</v>
       </c>
       <c r="CV159" t="n">
+        <v>47</v>
+      </c>
+      <c r="CW159" t="n">
+        <v>16</v>
+      </c>
+      <c r="CX159" t="n">
         <v>31</v>
-      </c>
-      <c r="CW159" t="n">
-        <v>9</v>
-      </c>
-      <c r="CX159" t="n">
-        <v>22</v>
       </c>
       <c r="CY159" t="n">
         <v>17</v>
@@ -51352,6 +52304,12 @@
       </c>
       <c r="DA159" t="n">
         <v>12</v>
+      </c>
+      <c r="DB159" t="n">
+        <v>45</v>
+      </c>
+      <c r="DC159" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="160">
@@ -51655,22 +52613,28 @@
         <v>67</v>
       </c>
       <c r="CV160" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="CW160" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CX160" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="CY160" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CZ160" t="n">
         <v>20</v>
       </c>
       <c r="DA160" t="n">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="DB160" t="n">
+        <v>52</v>
+      </c>
+      <c r="DC160" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="161">
@@ -51974,13 +52938,13 @@
         <v>67</v>
       </c>
       <c r="CV161" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="CW161" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CX161" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="CY161" t="n">
         <v>79</v>
@@ -51990,6 +52954,12 @@
       </c>
       <c r="DA161" t="n">
         <v>48</v>
+      </c>
+      <c r="DB161" t="n">
+        <v>73</v>
+      </c>
+      <c r="DC161" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="162">
@@ -52293,13 +53263,13 @@
         <v>41</v>
       </c>
       <c r="CV162" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="CW162" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="CX162" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="CY162" t="n">
         <v>46</v>
@@ -52309,6 +53279,12 @@
       </c>
       <c r="DA162" t="n">
         <v>24</v>
+      </c>
+      <c r="DB162" t="n">
+        <v>91</v>
+      </c>
+      <c r="DC162" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="163">
@@ -52610,13 +53586,13 @@
         <v>64</v>
       </c>
       <c r="CV163" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="CW163" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="CX163" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="CY163" t="n">
         <v>56</v>
@@ -52626,6 +53602,12 @@
       </c>
       <c r="DA163" t="n">
         <v>37</v>
+      </c>
+      <c r="DB163" t="n">
+        <v>52</v>
+      </c>
+      <c r="DC163" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="164">
@@ -52929,13 +53911,13 @@
         <v>123</v>
       </c>
       <c r="CV164" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="CW164" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="CX164" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="CY164" t="n">
         <v>46</v>
@@ -52945,6 +53927,12 @@
       </c>
       <c r="DA164" t="n">
         <v>27</v>
+      </c>
+      <c r="DB164" t="n">
+        <v>93</v>
+      </c>
+      <c r="DC164" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="165">
@@ -53248,13 +54236,13 @@
         <v>68</v>
       </c>
       <c r="CV165" t="n">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="CW165" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="CX165" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="CY165" t="n">
         <v>108</v>
@@ -53264,6 +54252,12 @@
       </c>
       <c r="DA165" t="n">
         <v>79</v>
+      </c>
+      <c r="DB165" t="n">
+        <v>170</v>
+      </c>
+      <c r="DC165" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="166">
@@ -53567,22 +54561,28 @@
         <v>140</v>
       </c>
       <c r="CV166" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="CW166" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="CX166" t="n">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="CY166" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CZ166" t="n">
         <v>79</v>
       </c>
       <c r="DA166" t="n">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="DB166" t="n">
+        <v>147</v>
+      </c>
+      <c r="DC166" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="167">
@@ -53886,22 +54886,28 @@
         <v>122</v>
       </c>
       <c r="CV167" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="CW167" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CX167" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="CY167" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CZ167" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="DA167" t="n">
         <v>74</v>
+      </c>
+      <c r="DB167" t="n">
+        <v>138</v>
+      </c>
+      <c r="DC167" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="168">
@@ -54205,22 +55211,28 @@
         <v>14</v>
       </c>
       <c r="CV168" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CW168" t="n">
         <v>5</v>
       </c>
       <c r="CX168" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CY168" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CZ168" t="n">
         <v>0</v>
       </c>
       <c r="DA168" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="DB168" t="n">
+        <v>10</v>
+      </c>
+      <c r="DC168" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="169">
@@ -54524,13 +55536,13 @@
         <v>89</v>
       </c>
       <c r="CV169" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="CW169" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CX169" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CY169" t="n">
         <v>37</v>
@@ -54540,6 +55552,12 @@
       </c>
       <c r="DA169" t="n">
         <v>34</v>
+      </c>
+      <c r="DB169" t="n">
+        <v>25</v>
+      </c>
+      <c r="DC169" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="170">
@@ -54843,22 +55861,28 @@
         <v>61</v>
       </c>
       <c r="CV170" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="CW170" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="CX170" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="CY170" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CZ170" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DA170" t="n">
         <v>49</v>
+      </c>
+      <c r="DB170" t="n">
+        <v>60</v>
+      </c>
+      <c r="DC170" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="171">
@@ -55162,13 +56186,13 @@
         <v>28</v>
       </c>
       <c r="CV171" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="CW171" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="CX171" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="CY171" t="n">
         <v>15</v>
@@ -55178,6 +56202,12 @@
       </c>
       <c r="DA171" t="n">
         <v>8</v>
+      </c>
+      <c r="DB171" t="n">
+        <v>73</v>
+      </c>
+      <c r="DC171" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="172">
@@ -55481,13 +56511,13 @@
         <v>77</v>
       </c>
       <c r="CV172" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="CW172" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CX172" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="CY172" t="n">
         <v>76</v>
@@ -55497,6 +56527,12 @@
       </c>
       <c r="DA172" t="n">
         <v>50</v>
+      </c>
+      <c r="DB172" t="n">
+        <v>74</v>
+      </c>
+      <c r="DC172" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="173">
@@ -55800,22 +56836,28 @@
         <v>547</v>
       </c>
       <c r="CV173" t="n">
-        <v>770</v>
+        <v>849</v>
       </c>
       <c r="CW173" t="n">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="CX173" t="n">
-        <v>620</v>
+        <v>686</v>
       </c>
       <c r="CY173" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="CZ173" t="n">
         <v>79</v>
       </c>
       <c r="DA173" t="n">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="DB173" t="n">
+        <v>483</v>
+      </c>
+      <c r="DC173" t="n">
+        <v>2166</v>
       </c>
     </row>
     <row r="174">
@@ -56119,13 +57161,13 @@
         <v>139</v>
       </c>
       <c r="CV174" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="CW174" t="n">
         <v>42</v>
       </c>
       <c r="CX174" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="CY174" t="n">
         <v>99</v>
@@ -56135,6 +57177,12 @@
       </c>
       <c r="DA174" t="n">
         <v>83</v>
+      </c>
+      <c r="DB174" t="n">
+        <v>116</v>
+      </c>
+      <c r="DC174" t="n">
+        <v>594</v>
       </c>
     </row>
     <row r="175">
@@ -56438,22 +57486,28 @@
         <v>58</v>
       </c>
       <c r="CV175" t="n">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="CW175" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="CX175" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="CY175" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CZ175" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DA175" t="n">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="DB175" t="n">
+        <v>135</v>
+      </c>
+      <c r="DC175" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="176">
@@ -56757,13 +57811,13 @@
         <v>28</v>
       </c>
       <c r="CV176" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="CW176" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CX176" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="CY176" t="n">
         <v>12</v>
@@ -56773,6 +57827,12 @@
       </c>
       <c r="DA176" t="n">
         <v>7</v>
+      </c>
+      <c r="DB176" t="n">
+        <v>22</v>
+      </c>
+      <c r="DC176" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="177">
@@ -57076,13 +58136,13 @@
         <v>35</v>
       </c>
       <c r="CV177" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="CW177" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CX177" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="CY177" t="n">
         <v>31</v>
@@ -57092,6 +58152,12 @@
       </c>
       <c r="DA177" t="n">
         <v>26</v>
+      </c>
+      <c r="DB177" t="n">
+        <v>57</v>
+      </c>
+      <c r="DC177" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="178">
@@ -57395,13 +58461,13 @@
         <v>69</v>
       </c>
       <c r="CV178" t="n">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="CW178" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CX178" t="n">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="CY178" t="n">
         <v>90</v>
@@ -57411,6 +58477,12 @@
       </c>
       <c r="DA178" t="n">
         <v>67</v>
+      </c>
+      <c r="DB178" t="n">
+        <v>100</v>
+      </c>
+      <c r="DC178" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="179">
@@ -57714,22 +58786,28 @@
         <v>187</v>
       </c>
       <c r="CV179" t="n">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="CW179" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="CX179" t="n">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="CY179" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CZ179" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DA179" t="n">
         <v>83</v>
+      </c>
+      <c r="DB179" t="n">
+        <v>197</v>
+      </c>
+      <c r="DC179" t="n">
+        <v>657</v>
       </c>
     </row>
     <row r="180">
@@ -58033,22 +59111,28 @@
         <v>429</v>
       </c>
       <c r="CV180" t="n">
-        <v>1758</v>
+        <v>1864</v>
       </c>
       <c r="CW180" t="n">
-        <v>643</v>
+        <v>685</v>
       </c>
       <c r="CX180" t="n">
-        <v>1115</v>
+        <v>1179</v>
       </c>
       <c r="CY180" t="n">
         <v>951</v>
       </c>
       <c r="CZ180" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="DA180" t="n">
-        <v>606</v>
+        <v>604</v>
+      </c>
+      <c r="DB180" t="n">
+        <v>703</v>
+      </c>
+      <c r="DC180" t="n">
+        <v>1439</v>
       </c>
     </row>
     <row r="181">
@@ -58352,13 +59436,13 @@
         <v>114</v>
       </c>
       <c r="CV181" t="n">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="CW181" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="CX181" t="n">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="CY181" t="n">
         <v>137</v>
@@ -58368,6 +59452,12 @@
       </c>
       <c r="DA181" t="n">
         <v>97</v>
+      </c>
+      <c r="DB181" t="n">
+        <v>123</v>
+      </c>
+      <c r="DC181" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="182">
@@ -58671,13 +59761,13 @@
         <v>143</v>
       </c>
       <c r="CV182" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="CW182" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CX182" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="CY182" t="n">
         <v>92</v>
@@ -58687,6 +59777,12 @@
       </c>
       <c r="DA182" t="n">
         <v>70</v>
+      </c>
+      <c r="DB182" t="n">
+        <v>106</v>
+      </c>
+      <c r="DC182" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="183">
@@ -58990,22 +60086,28 @@
         <v>538</v>
       </c>
       <c r="CV183" t="n">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="CW183" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="CX183" t="n">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="CY183" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CZ183" t="n">
         <v>58</v>
       </c>
       <c r="DA183" t="n">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="DB183" t="n">
+        <v>495</v>
+      </c>
+      <c r="DC183" t="n">
+        <v>1514</v>
       </c>
     </row>
     <row r="184">
@@ -59309,13 +60411,13 @@
         <v>46</v>
       </c>
       <c r="CV184" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="CW184" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CX184" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="CY184" t="n">
         <v>44</v>
@@ -59325,6 +60427,12 @@
       </c>
       <c r="DA184" t="n">
         <v>29</v>
+      </c>
+      <c r="DB184" t="n">
+        <v>67</v>
+      </c>
+      <c r="DC184" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="185">
@@ -59628,13 +60736,13 @@
         <v>55</v>
       </c>
       <c r="CV185" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="CW185" t="n">
         <v>18</v>
       </c>
       <c r="CX185" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="CY185" t="n">
         <v>17</v>
@@ -59644,6 +60752,12 @@
       </c>
       <c r="DA185" t="n">
         <v>15</v>
+      </c>
+      <c r="DB185" t="n">
+        <v>29</v>
+      </c>
+      <c r="DC185" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="186">
@@ -59947,22 +61061,28 @@
         <v>124</v>
       </c>
       <c r="CV186" t="n">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="CW186" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="CX186" t="n">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="CY186" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CZ186" t="n">
         <v>35</v>
       </c>
       <c r="DA186" t="n">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="DB186" t="n">
+        <v>142</v>
+      </c>
+      <c r="DC186" t="n">
+        <v>546</v>
       </c>
     </row>
     <row r="187">
@@ -60266,13 +61386,13 @@
         <v>88</v>
       </c>
       <c r="CV187" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="CW187" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CX187" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="CY187" t="n">
         <v>70</v>
@@ -60282,6 +61402,12 @@
       </c>
       <c r="DA187" t="n">
         <v>53</v>
+      </c>
+      <c r="DB187" t="n">
+        <v>76</v>
+      </c>
+      <c r="DC187" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="188">
@@ -60585,22 +61711,28 @@
         <v>375</v>
       </c>
       <c r="CV188" t="n">
-        <v>579</v>
+        <v>683</v>
       </c>
       <c r="CW188" t="n">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="CX188" t="n">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="CY188" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CZ188" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="DA188" t="n">
         <v>257</v>
+      </c>
+      <c r="DB188" t="n">
+        <v>612</v>
+      </c>
+      <c r="DC188" t="n">
+        <v>1455</v>
       </c>
     </row>
     <row r="189">
@@ -60895,31 +62027,37 @@
         <v>4003</v>
       </c>
       <c r="CS189" t="n">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="CT189" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CU189" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CV189" t="n">
-        <v>3174</v>
+        <v>3319</v>
       </c>
       <c r="CW189" t="n">
-        <v>970</v>
+        <v>1013</v>
       </c>
       <c r="CX189" t="n">
-        <v>2204</v>
+        <v>2306</v>
       </c>
       <c r="CY189" t="n">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="CZ189" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="DA189" t="n">
-        <v>1282</v>
+        <v>1283</v>
+      </c>
+      <c r="DB189" t="n">
+        <v>1211</v>
+      </c>
+      <c r="DC189" t="n">
+        <v>2792</v>
       </c>
     </row>
     <row r="190">
@@ -61214,31 +62352,37 @@
         <v>1164</v>
       </c>
       <c r="CS190" t="n">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="CT190" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="CU190" t="n">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="CV190" t="n">
-        <v>228</v>
+        <v>480</v>
       </c>
       <c r="CW190" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="CX190" t="n">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="CY190" t="n">
-        <v>253</v>
+        <v>475</v>
       </c>
       <c r="CZ190" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="DA190" t="n">
-        <v>224</v>
+        <v>408</v>
+      </c>
+      <c r="DB190" t="n">
+        <v>201</v>
+      </c>
+      <c r="DC190" t="n">
+        <v>953</v>
       </c>
     </row>
     <row r="191">
@@ -61542,13 +62686,13 @@
         <v>837</v>
       </c>
       <c r="CV191" t="n">
-        <v>921</v>
+        <v>968</v>
       </c>
       <c r="CW191" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="CX191" t="n">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="CY191" t="n">
         <v>501</v>
@@ -61558,6 +62702,12 @@
       </c>
       <c r="DA191" t="n">
         <v>379</v>
+      </c>
+      <c r="DB191" t="n">
+        <v>792</v>
+      </c>
+      <c r="DC191" t="n">
+        <v>2396</v>
       </c>
     </row>
     <row r="192">
@@ -61861,22 +63011,28 @@
         <v>87</v>
       </c>
       <c r="CV192" t="n">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="CW192" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="CX192" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="CY192" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="CZ192" t="n">
         <v>47</v>
       </c>
       <c r="DA192" t="n">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="DB192" t="n">
+        <v>169</v>
+      </c>
+      <c r="DC192" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="193">
@@ -62180,22 +63336,28 @@
         <v>28</v>
       </c>
       <c r="CV193" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="CW193" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CX193" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="CY193" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CZ193" t="n">
         <v>17</v>
       </c>
       <c r="DA193" t="n">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="DB193" t="n">
+        <v>72</v>
+      </c>
+      <c r="DC193" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="194">
@@ -62499,22 +63661,28 @@
         <v>350</v>
       </c>
       <c r="CV194" t="n">
-        <v>855</v>
+        <v>985</v>
       </c>
       <c r="CW194" t="n">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="CX194" t="n">
-        <v>613</v>
+        <v>710</v>
       </c>
       <c r="CY194" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CZ194" t="n">
         <v>155</v>
       </c>
       <c r="DA194" t="n">
-        <v>419</v>
+        <v>420</v>
+      </c>
+      <c r="DB194" t="n">
+        <v>555</v>
+      </c>
+      <c r="DC194" t="n">
+        <v>1387</v>
       </c>
     </row>
     <row r="195">
@@ -62809,31 +63977,37 @@
         <v>588</v>
       </c>
       <c r="CS195" t="n">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="CT195" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="CU195" t="n">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="CV195" t="n">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="CW195" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="CX195" t="n">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="CY195" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="CZ195" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="DA195" t="n">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="DB195" t="n">
+        <v>91</v>
+      </c>
+      <c r="DC195" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="196">
@@ -63128,31 +64302,37 @@
         <v>1525</v>
       </c>
       <c r="CS196" t="n">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="CT196" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CU196" t="n">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="CV196" t="n">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="CW196" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="CX196" t="n">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="CY196" t="n">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="CZ196" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="DA196" t="n">
-        <v>194</v>
+        <v>211</v>
+      </c>
+      <c r="DB196" t="n">
+        <v>281</v>
+      </c>
+      <c r="DC196" t="n">
+        <v>1234</v>
       </c>
     </row>
     <row r="197">
@@ -63456,22 +64636,28 @@
         <v>369</v>
       </c>
       <c r="CV197" t="n">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="CW197" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="CX197" t="n">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="CY197" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CZ197" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DA197" t="n">
-        <v>273</v>
+        <v>276</v>
+      </c>
+      <c r="DB197" t="n">
+        <v>360</v>
+      </c>
+      <c r="DC197" t="n">
+        <v>1845</v>
       </c>
     </row>
   </sheetData>
